--- a/Assets/StreamingAssets/ExcelFiles/Budget/a.xlsx
+++ b/Assets/StreamingAssets/ExcelFiles/Budget/a.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,45 +586,9 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13">
-        <v>1149</v>
-      </c>
-      <c r="C13">
-        <v>1149</v>
-      </c>
-      <c r="D13">
-        <v>1149</v>
-      </c>
-      <c r="E13">
-        <v>1149</v>
-      </c>
-      <c r="F13">
-        <v>1149</v>
-      </c>
-      <c r="G13">
-        <v>1149</v>
-      </c>
-      <c r="H13">
-        <v>1149</v>
-      </c>
-      <c r="I13">
-        <v>1149</v>
-      </c>
-      <c r="J13">
-        <v>1149</v>
-      </c>
-      <c r="K13">
-        <v>1149</v>
-      </c>
-      <c r="L13">
-        <v>1149</v>
-      </c>
-      <c r="M13">
-        <v>1149</v>
-      </c>
       <c r="N13">
         <f t="shared" ref="N13:N17" si="0">SUM(B13:M13)</f>
-        <v>13788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -688,6 +652,10 @@
       <c r="L15">
         <v>10500</v>
       </c>
+      <c r="N15">
+        <f>SUM(B15:M15)</f>
+        <v>42000</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -705,55 +673,55 @@
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <f>SUM(B12:B16)</f>
-        <v>3853</v>
+        <v>2704</v>
       </c>
       <c r="C17">
         <f t="shared" ref="C17:M17" si="1">SUM(C12:C16)</f>
-        <v>12315</v>
+        <v>11166</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>3853</v>
+        <v>2704</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>1815</v>
+        <v>666</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>14353</v>
+        <v>13204</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>1815</v>
+        <v>666</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>3853</v>
+        <v>2704</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>12315</v>
+        <v>11166</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>3853</v>
+        <v>2704</v>
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>1815</v>
+        <v>666</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>23353</v>
+        <v>22204</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>1815</v>
+        <v>666</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>85008</v>
+        <v>71220</v>
       </c>
     </row>
   </sheetData>
